--- a/Table/Rune.xlsx
+++ b/Table/Rune.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860FA642-1B34-4692-825D-5C6EF8AE43E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C999B-D789-4E5C-89F0-55E24E1EEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_룬 효과 정보" sheetId="2" r:id="rId1"/>
@@ -327,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +415,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +705,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,27 +758,27 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -774,16 +786,16 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="72" x14ac:dyDescent="0.3">
@@ -842,24 +854,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,36 +883,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N1" s="8" t="s">
@@ -926,37 +938,37 @@
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2">
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="10">
         <v>0</v>
       </c>
       <c r="N2">
@@ -982,37 +994,37 @@
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="C3">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3">
+      <c r="H3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="10">
         <v>0</v>
       </c>
       <c r="N3">
@@ -1038,37 +1050,37 @@
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4">
+      <c r="H4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="10">
         <v>0</v>
       </c>
       <c r="N4">
@@ -1094,37 +1106,37 @@
       <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="C5">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5">
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="10">
         <v>0</v>
       </c>
       <c r="N5">
@@ -1150,37 +1162,37 @@
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="10">
         <v>50</v>
       </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6">
+      <c r="J6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6">
@@ -1206,37 +1218,37 @@
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7">
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7">
+      <c r="J7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="10">
         <v>0</v>
       </c>
       <c r="N7">
@@ -1262,37 +1274,37 @@
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8">
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="10">
         <v>30</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="10">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="10">
         <v>50</v>
       </c>
       <c r="N8">
@@ -1318,37 +1330,37 @@
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="10">
         <v>1</v>
       </c>
       <c r="N9">
@@ -1374,37 +1386,37 @@
       <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
         <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="10">
         <v>2</v>
       </c>
       <c r="N10">
@@ -1430,37 +1442,37 @@
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="10">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="10">
         <v>3</v>
       </c>
       <c r="N11">

--- a/Table/Rune.xlsx
+++ b/Table/Rune.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\유니티참고용\Project\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C999B-D789-4E5C-89F0-55E24E1EEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_룬 효과 정보" sheetId="2" r:id="rId1"/>
     <sheet name="Rune_Effect_Info" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>Index</t>
   </si>
@@ -263,11 +262,55 @@
   <si>
     <t>지속 시간 3초 증가(화상/빙결)</t>
   </si>
+  <si>
+    <t>AddEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTimeDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬효과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EDD6B7-32B2-4A25-9AA8-FCB3F86E667D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -847,14 +890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1491,6 +1534,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Rune.xlsx
+++ b/Table/Rune.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\유니티참고용\Project\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BF1A5-6B0C-43F8-9B22-B0B314FBC68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_룬 효과 정보" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="Rune">'_룬 효과 정보'!$B$3:$E$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>Index</t>
   </si>
@@ -193,14 +192,6 @@
   </si>
   <si>
     <t>Int (2147483648,2147483647)</t>
-  </si>
-  <si>
-    <t>String idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rune Effect Table idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예시 - 효과 추가(룬 효과 1)</t>
@@ -296,11 +287,19 @@
 MinDmg : 피해량(%) 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,6 +543,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -552,30 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,10 +855,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D13"/>
     </sheetView>
   </sheetViews>
@@ -960,8 +959,8 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>58</v>
+      <c r="D8" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
@@ -974,7 +973,7 @@
       <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
@@ -986,7 +985,7 @@
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
@@ -998,7 +997,7 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1010,7 +1009,7 @@
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1021,7 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1119,14 +1118,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,12 +1135,12 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.5" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1217,49 +1216,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="15">
+        <v>39</v>
+      </c>
+      <c r="C2" s="12">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="19">
-        <v>0</v>
-      </c>
-      <c r="L2" s="16">
-        <v>11</v>
-      </c>
-      <c r="M2" s="16">
-        <v>0</v>
-      </c>
-      <c r="N2" s="16">
-        <v>0</v>
-      </c>
-      <c r="O2" s="16">
-        <v>0</v>
-      </c>
-      <c r="P2" s="16">
-        <v>0</v>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1267,49 +1266,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15">
+        <v>39</v>
+      </c>
+      <c r="C3" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>12</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0</v>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1317,49 +1316,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="15">
+        <v>40</v>
+      </c>
+      <c r="C4" s="12">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>11</v>
-      </c>
-      <c r="M4" s="16">
-        <v>12</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0</v>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1367,49 +1366,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="15">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="16">
-        <v>11</v>
-      </c>
-      <c r="M5" s="16">
-        <v>12</v>
-      </c>
-      <c r="N5" s="16">
-        <v>14</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1417,49 +1416,49 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="15">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0</v>
+      <c r="H6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1467,49 +1466,49 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="15">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <v>3</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
+      <c r="H7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1517,49 +1516,49 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="15">
+        <v>44</v>
+      </c>
+      <c r="C8" s="12">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
+      <c r="H8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1567,49 +1566,49 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="15">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="18">
         <v>3</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
+      <c r="H9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1617,49 +1616,49 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="15">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>5</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>0</v>
+      <c r="H10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1667,49 +1666,49 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="15">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="18">
         <v>10</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0</v>
+      <c r="H11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1717,49 +1716,49 @@
         <v>1001</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="15">
+        <v>50</v>
+      </c>
+      <c r="C12" s="12">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16">
-        <v>0</v>
-      </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
+      <c r="H12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1767,49 +1766,49 @@
         <v>1002</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="15">
+        <v>51</v>
+      </c>
+      <c r="C13" s="12">
         <v>101</v>
       </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="18">
         <v>3</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
+      <c r="H13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1817,49 +1816,49 @@
         <v>1003</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="12">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="15">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>10</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0</v>
+      <c r="H14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1867,49 +1866,49 @@
         <v>1004</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12">
+        <v>106</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="15">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="18">
+        <v>10</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="21">
-        <v>10</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0</v>
+      <c r="M15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Rune.xlsx
+++ b/Table/Rune.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Rune_Effect_Info" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Rune">'_룬 효과 정보'!$B$3:$E$18</definedName>
+    <definedName name="Rune">'_룬 효과 정보'!$B$3:$E$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="67">
   <si>
     <t>Index</t>
   </si>
@@ -214,25 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시 - 투사체 개수 1개 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시 - 투사체 개수 3개 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시 - 투사체 개수 5개 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시 - 투사체 개수 10개 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddProjectilenum</t>
-  </si>
-  <si>
     <t>AddAtk</t>
   </si>
   <si>
@@ -249,14 +230,6 @@
   </si>
   <si>
     <t>예시 - 피해량(%) 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinDmg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +267,56 @@
   <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rune_IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_30.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_31.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_32.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_33.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_34.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_35.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_40.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_41.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_42.png</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_43.png</t>
+  </si>
+  <si>
+    <t>AddDamage</t>
   </si>
 </sst>
 </file>
@@ -506,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -856,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -952,97 +978,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="22"/>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="D12" s="22"/>
       <c r="E12" s="3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -1056,7 +1082,7 @@
     </row>
     <row r="16" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -1070,7 +1096,7 @@
     </row>
     <row r="17" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
@@ -1084,7 +1110,7 @@
     </row>
     <row r="18" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
@@ -1096,11 +1122,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
+    <row r="19" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
@@ -1108,9 +1142,15 @@
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D9:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1119,13 +1159,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1134,18 +1174,18 @@
     <col min="2" max="2" width="26.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="str" cm="1">
         <f t="array" ref="A1">INDEX(Rune,COLUMN(),1)</f>
         <v>Index</v>
@@ -1168,50 +1208,54 @@
       </c>
       <c r="F1" s="8" t="str" cm="1">
         <f t="array" ref="F1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_effect1</v>
+        <v>Rune_IconPath</v>
       </c>
       <c r="G1" s="8" t="str" cm="1">
         <f t="array" ref="G1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_effect1_Value</v>
+        <v>Rune_effect1</v>
       </c>
       <c r="H1" s="8" t="str" cm="1">
         <f t="array" ref="H1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_effect2</v>
+        <v>Rune_effect1_Value</v>
       </c>
       <c r="I1" s="8" t="str" cm="1">
         <f t="array" ref="I1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_effect2_Value</v>
+        <v>Rune_effect2</v>
       </c>
       <c r="J1" s="8" t="str" cm="1">
         <f t="array" ref="J1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_effect3</v>
+        <v>Rune_effect2_Value</v>
       </c>
       <c r="K1" s="8" t="str" cm="1">
         <f t="array" ref="K1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_effect3_Value</v>
+        <v>Rune_effect3</v>
       </c>
       <c r="L1" s="8" t="str" cm="1">
         <f t="array" ref="L1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_Tag1</v>
+        <v>Rune_effect3_Value</v>
       </c>
       <c r="M1" s="8" t="str" cm="1">
         <f t="array" ref="M1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_Tag2</v>
+        <v>Rune_Tag1</v>
       </c>
       <c r="N1" s="8" t="str" cm="1">
         <f t="array" ref="N1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_Tag3</v>
+        <v>Rune_Tag2</v>
       </c>
       <c r="O1" s="8" t="str" cm="1">
         <f t="array" ref="O1">INDEX(Rune,COLUMN(),1)</f>
-        <v>Rune_Tag4</v>
+        <v>Rune_Tag3</v>
       </c>
       <c r="P1" s="8" t="str" cm="1">
         <f t="array" ref="P1">INDEX(Rune,COLUMN(),1)</f>
+        <v>Rune_Tag4</v>
+      </c>
+      <c r="Q1" s="8" t="str" cm="1">
+        <f t="array" ref="Q1">INDEX(Rune,COLUMN(),1)</f>
         <v>Rune_Tag5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1222,46 +1266,49 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>500001</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>600001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="16">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>57</v>
+      <c r="L2" s="16">
+        <v>0</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1272,46 +1319,49 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>500001</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17" t="s">
+        <v>600001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="19">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>57</v>
+      <c r="L3" s="19">
+        <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1322,46 +1372,49 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>500001</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17" t="s">
+        <v>600001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>57</v>
+      <c r="L4" s="19">
+        <v>0</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1372,46 +1425,49 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>500001</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17" t="s">
+        <v>600001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>57</v>
+      <c r="L5" s="19">
+        <v>0</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1422,46 +1478,49 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>500001</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17" t="s">
+        <v>600001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>57</v>
+      <c r="L6" s="19">
+        <v>0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -1472,443 +1531,258 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>500001</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17" t="s">
+        <v>600001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="18">
+      <c r="H7" s="18">
         <v>3</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>57</v>
+      <c r="L7" s="19">
+        <v>0</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="12">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>500001</v>
+      </c>
+      <c r="E8">
+        <v>600001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="12">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>500001</v>
+      </c>
+      <c r="E9">
+        <v>600001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="18">
+        <v>3</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="12">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>500001</v>
+      </c>
+      <c r="E10">
+        <v>600001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="18">
+        <v>10</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="C11" s="12">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <v>500001</v>
+      </c>
+      <c r="E11">
+        <v>600001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="18">
+        <v>10</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="s">
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="12">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="18">
-        <v>5</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="12">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="18">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>57</v>
+      <c r="L11" s="19">
+        <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1001</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="12">
-        <v>101</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1002</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="12">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="18">
-        <v>3</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1003</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="12">
-        <v>105</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="18">
-        <v>10</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1004</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="12">
-        <v>106</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="18">
-        <v>10</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
